--- a/Udacity/module_2/exemplo-de-equacao-linear.xlsx
+++ b/Udacity/module_2/exemplo-de-equacao-linear.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\GitHub\DataScience\Udacity\module_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.junior\Documents\GitHub\DataScience\Udacity\module_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Número de empregados</t>
   </si>
@@ -47,13 +48,85 @@
   </si>
   <si>
     <t>r2</t>
+  </si>
+  <si>
+    <t>RESUMO DOS RESULTADOS</t>
+  </si>
+  <si>
+    <t>Estatística de regressão</t>
+  </si>
+  <si>
+    <t>R múltiplo</t>
+  </si>
+  <si>
+    <t>R-Quadrado</t>
+  </si>
+  <si>
+    <t>R-quadrado ajustado</t>
+  </si>
+  <si>
+    <t>Erro padrão</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Resíduo</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Interseção</t>
+  </si>
+  <si>
+    <t>gl</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F de significação</t>
+  </si>
+  <si>
+    <t>Coeficientes</t>
+  </si>
+  <si>
+    <t>Stat t</t>
+  </si>
+  <si>
+    <t>valor-P</t>
+  </si>
+  <si>
+    <t>95% inferiores</t>
+  </si>
+  <si>
+    <t>95% superiores</t>
+  </si>
+  <si>
+    <t>Inferior 95,0%</t>
+  </si>
+  <si>
+    <t>Superior 95,0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +142,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -86,15 +167,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,11 +516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="556884952"/>
-        <c:axId val="556884560"/>
+        <c:axId val="351918768"/>
+        <c:axId val="351920336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="556884952"/>
+        <c:axId val="351918768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,12 +577,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556884560"/>
+        <c:crossAx val="351920336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="556884560"/>
+        <c:axId val="351920336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +639,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556884952"/>
+        <c:crossAx val="351918768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1463,13 +1572,13 @@
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>51</v>
       </c>
@@ -1520,7 +1629,7 @@
         <v>0.97438424168302806</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>68</v>
       </c>
@@ -1532,7 +1641,7 @@
         <v>17.465550036517509</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>77</v>
       </c>
@@ -1544,7 +1653,7 @@
         <v>19.115402247233064</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>124</v>
       </c>
@@ -1556,7 +1665,7 @@
         <v>27.731297125414283</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>124</v>
       </c>
@@ -1568,7 +1677,7 @@
         <v>27.731297125414283</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>134</v>
       </c>
@@ -1580,7 +1689,7 @@
         <v>29.564466248431565</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>157</v>
       </c>
@@ -1592,7 +1701,7 @@
         <v>33.780755231371309</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>190</v>
       </c>
@@ -1604,7 +1713,7 @@
         <v>39.830213337328338</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>205</v>
       </c>
@@ -1616,7 +1725,7 @@
         <v>42.579967021854259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>230</v>
       </c>
@@ -1628,7 +1737,7 @@
         <v>47.162889829397457</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>265</v>
       </c>
@@ -1640,7 +1749,7 @@
         <v>53.578981759957941</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>296</v>
       </c>
@@ -1652,7 +1761,7 @@
         <v>59.261806041311516</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>336</v>
       </c>
@@ -1664,7 +1773,7 @@
         <v>66.594482533380642</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>359</v>
       </c>
@@ -1676,7 +1785,7 @@
         <v>70.810771516320386</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>403</v>
       </c>
@@ -1688,7 +1797,7 @@
         <v>78.876715657596421</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>418</v>
       </c>
@@ -1700,7 +1809,7 @@
         <v>81.626469342122334</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>437</v>
       </c>
@@ -1712,7 +1821,7 @@
         <v>85.10949067585517</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>451</v>
       </c>
@@ -1724,7 +1833,7 @@
         <v>87.675927448079364</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>465</v>
       </c>
@@ -1736,7 +1845,7 @@
         <v>90.242364220303557</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>491</v>
       </c>
@@ -1756,13 +1865,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.98710903231761982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.97438424168302773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.97296114399875144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24.199710171612626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>400973.68249697902</v>
+      </c>
+      <c r="D12" s="3">
+        <v>400973.68249697902</v>
+      </c>
+      <c r="E12" s="3">
+        <v>684.69245115705633</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.9105735745081098E-16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10541.26750302093</v>
+      </c>
+      <c r="D13" s="3">
+        <v>585.62597239005163</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4">
+        <v>411514.94999999995</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>65.523573987761296</v>
+      </c>
+      <c r="C17" s="3">
+        <v>9.3190124096428129</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7.0311714490218966</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.4636503963783886E-6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45.945055423062968</v>
+      </c>
+      <c r="G17" s="3">
+        <v>85.102092552459624</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45.945055423062968</v>
+      </c>
+      <c r="I17" s="3">
+        <v>85.102092552459624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
+        <v>5.3152992238885863</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.20313275009710066</v>
+      </c>
+      <c r="D18" s="4">
+        <v>26.166628578344898</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8.9105735745081749E-16</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.888533152114813</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5.7420652956623597</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4.888533152114813</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.7420652956623597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1772,7 +2104,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
